--- a/data/trans_dic/P32-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32-Estudios-trans_dic.xlsx
@@ -708,22 +708,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01620386933466604</v>
+        <v>0.01586736619563019</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04186143517789143</v>
+        <v>0.04041551868540876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03225298122427939</v>
+        <v>0.03340478554648826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05097213343319054</v>
+        <v>0.0539299286754269</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.004277035351779768</v>
+        <v>0.004270853275291049</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01555405304786176</v>
+        <v>0.01467498252923568</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03190535449852782</v>
+        <v>0.03191891320542534</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02542570769567919</v>
+        <v>0.02565051051324707</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04391696160693041</v>
+        <v>0.04279680393485726</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05048385063126453</v>
+        <v>0.05079908999508057</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09035415643555098</v>
+        <v>0.0858712471133412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08316932557545563</v>
+        <v>0.08611269056962705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1188026069324219</v>
+        <v>0.1233890621108671</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06585976797605318</v>
+        <v>0.07173678631754679</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03941869830313547</v>
+        <v>0.03559985841824655</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04109975841766567</v>
+        <v>0.03332818578295133</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04427092575319454</v>
+        <v>0.04264749734832479</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06556115166235256</v>
+        <v>0.06384962075789509</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06143983803399</v>
+        <v>0.06281868969563803</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09662169792959435</v>
+        <v>0.09482946212230751</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.04524649184522905</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05107323673993832</v>
+        <v>0.05107323673993833</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02000475312724638</v>
+        <v>0.01915127011477582</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05917911633480803</v>
+        <v>0.05680647475855056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03872932878353635</v>
+        <v>0.03791285787803887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04548512207329272</v>
+        <v>0.04501811955040143</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007958647616934279</v>
+        <v>0.00885216746810938</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01195623638429671</v>
+        <v>0.01294701619631977</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02415402480983349</v>
+        <v>0.02474735381884089</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.020282619142639</v>
+        <v>0.01901833529102811</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01845278126775262</v>
+        <v>0.01742202157349642</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04503754876869104</v>
+        <v>0.04570177834676429</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03583704635429938</v>
+        <v>0.03620738172883581</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03949389191837649</v>
+        <v>0.03996174622704374</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03910879283491048</v>
+        <v>0.03970181506371061</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08812643879178939</v>
+        <v>0.08891773604894175</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06318090872791504</v>
+        <v>0.06505120906413533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0838550859178078</v>
+        <v>0.08252808898803282</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03275944955560842</v>
+        <v>0.03119439264950081</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.039575461824046</v>
+        <v>0.03967126651128327</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0517642556828596</v>
+        <v>0.05303704219020784</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05254297879086781</v>
+        <v>0.05266668040463537</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03281722577100803</v>
+        <v>0.0323347090285792</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06814459238011268</v>
+        <v>0.06869349841607833</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05487052046448964</v>
+        <v>0.05585356645349684</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06387629295228614</v>
+        <v>0.0670740322879976</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.05793616389736357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06749799687519592</v>
+        <v>0.06749799687519593</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.005333011714620558</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008482678960276225</v>
+        <v>0.007493353990429412</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03820147493842519</v>
+        <v>0.03726217441696423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03512984327457134</v>
+        <v>0.03588281389769726</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04522971054192354</v>
+        <v>0.04440311200924837</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007948082545486285</v>
+        <v>0.007929305661426808</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01785088120334786</v>
+        <v>0.01669708014919705</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02403898761482877</v>
+        <v>0.02310573211504051</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006670003490178119</v>
+        <v>0.007436485095923581</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02987920439476682</v>
+        <v>0.02981901002182503</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03125877597612504</v>
+        <v>0.03181537230095433</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04231521202950281</v>
+        <v>0.03981321746481786</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04638243468018846</v>
+        <v>0.04591799941793698</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09580871919347818</v>
+        <v>0.09421832169635579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09061687829469658</v>
+        <v>0.08959412592465342</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1003387515273647</v>
+        <v>0.09835687345073355</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02691305886741418</v>
+        <v>0.02642973818977774</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06606051124141141</v>
+        <v>0.06453484444859343</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06519658538209762</v>
+        <v>0.06669597844574188</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07857488822692943</v>
+        <v>0.07786895369704304</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03333634570403144</v>
+        <v>0.03188677345873306</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07038974884423271</v>
+        <v>0.07333661859645144</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06840167792523762</v>
+        <v>0.06969904022594477</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08017075846330432</v>
+        <v>0.0790860111309053</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.0523940777748533</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06529159138692603</v>
+        <v>0.06529159138692602</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01479901423863817</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02008156014328001</v>
+        <v>0.02065811607596086</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05705412259622612</v>
+        <v>0.05698458897793346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04205563168038785</v>
+        <v>0.04251697314702049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05378492812762456</v>
+        <v>0.05240647941253726</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007485294750925677</v>
+        <v>0.007970974446670739</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01353804092816569</v>
+        <v>0.01331594068104769</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02358139287675515</v>
+        <v>0.02242947537199581</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02389318947576222</v>
+        <v>0.02364147028830789</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01829445641293876</v>
+        <v>0.0175290413648806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04408709859821445</v>
+        <v>0.04390584127683184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03796535011504041</v>
+        <v>0.03812040447948271</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04506578980070598</v>
+        <v>0.04569103330148085</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03492730951804354</v>
+        <v>0.03590607015298731</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07942182178374359</v>
+        <v>0.08099311038209786</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06331330318670135</v>
+        <v>0.06406613797799623</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0805306127519989</v>
+        <v>0.07942855737147253</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02579550541961917</v>
+        <v>0.02617531041399257</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03367722755220391</v>
+        <v>0.03297407407012681</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04668754913372691</v>
+        <v>0.04394133062634589</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05071077884111169</v>
+        <v>0.05064038071013325</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03009977908229163</v>
+        <v>0.02978795583620871</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06138079229329621</v>
+        <v>0.06179517283939418</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.053925069956786</v>
+        <v>0.05301348308941714</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06517961391882984</v>
+        <v>0.0650814863581937</v>
       </c>
     </row>
     <row r="16">
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7632</v>
+        <v>7473</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21417</v>
+        <v>20677</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11512</v>
+        <v>11924</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13177</v>
+        <v>13941</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
@@ -1487,16 +1487,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9932</v>
+        <v>9370</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>23634</v>
+        <v>23644</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12514</v>
+        <v>12625</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14644</v>
+        <v>14270</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23778</v>
+        <v>23926</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46227</v>
+        <v>43933</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29686</v>
+        <v>30737</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30712</v>
+        <v>31897</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11034</v>
+        <v>12018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9033</v>
+        <v>8157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5559</v>
+        <v>4508</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28268</v>
+        <v>27232</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48565</v>
+        <v>47297</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30240</v>
+        <v>30919</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>32218</v>
+        <v>31620</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21193</v>
+        <v>20289</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>70846</v>
+        <v>68005</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>48534</v>
+        <v>47511</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>47565</v>
+        <v>47077</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4249</v>
+        <v>4726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7139</v>
+        <v>7730</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17555</v>
+        <v>17987</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11330</v>
+        <v>10624</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29400</v>
+        <v>27758</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>80806</v>
+        <v>81998</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>70956</v>
+        <v>71689</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>63362</v>
+        <v>64113</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41432</v>
+        <v>42060</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>105500</v>
+        <v>106447</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>79176</v>
+        <v>81519</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>87690</v>
+        <v>86303</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17489</v>
+        <v>16653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23629</v>
+        <v>23686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37623</v>
+        <v>38548</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29352</v>
+        <v>29421</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>52286</v>
+        <v>51518</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>122265</v>
+        <v>123250</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>108642</v>
+        <v>110588</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>102481</v>
+        <v>107611</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2973</v>
+        <v>2626</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12461</v>
+        <v>12155</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13329</v>
+        <v>13615</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16646</v>
+        <v>16342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5038</v>
+        <v>4712</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6486</v>
+        <v>6234</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3626</v>
+        <v>4043</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>16458</v>
+        <v>16424</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20682</v>
+        <v>21050</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>26991</v>
+        <v>25395</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16257</v>
+        <v>16095</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31252</v>
+        <v>30734</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34382</v>
+        <v>33994</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36928</v>
+        <v>36198</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5199</v>
+        <v>5106</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14838</v>
+        <v>14495</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18399</v>
+        <v>18822</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21201</v>
+        <v>21011</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18125</v>
+        <v>17337</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>38771</v>
+        <v>40394</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45257</v>
+        <v>46115</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>51137</v>
+        <v>50445</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37771</v>
+        <v>38856</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>116103</v>
+        <v>115961</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>83670</v>
+        <v>84588</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>89943</v>
+        <v>87638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6696</v>
+        <v>7131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14226</v>
+        <v>13992</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26983</v>
+        <v>25665</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21585</v>
+        <v>21357</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>50776</v>
+        <v>48652</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>136042</v>
+        <v>135483</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>118975</v>
+        <v>119461</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>116074</v>
+        <v>117684</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65695</v>
+        <v>67536</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>161620</v>
+        <v>164817</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>125963</v>
+        <v>127461</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>134669</v>
+        <v>132826</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>23076</v>
+        <v>23416</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>35388</v>
+        <v>34649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>53423</v>
+        <v>50281</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45811</v>
+        <v>45747</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>83542</v>
+        <v>82676</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>189407</v>
+        <v>190685</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>168990</v>
+        <v>166133</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>167880</v>
+        <v>167627</v>
       </c>
     </row>
     <row r="20">
